--- a/biology/Médecine/Tronc_cœliaque/Tronc_cœliaque.xlsx
+++ b/biology/Médecine/Tronc_cœliaque/Tronc_cœliaque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tronc_c%C5%93liaque</t>
+          <t>Tronc_cœliaque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tronc cœliaque est une artère ; très courte, première branche majeure de l'aorte abdominale (les suivantes étant les artères mésentériques supérieure puis inférieure).
 Il approvisionne en sang oxygéné le foie, l'estomac, la rate, le duodénum et le pancréas. Il se divise pour cela en trois :
